--- a/rom/Bills/BillSale.xlsx
+++ b/rom/Bills/BillSale.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
@@ -41,10 +44,34 @@
     <t>02/04/2023</t>
   </si>
   <si>
+    <t>BS1</t>
+  </si>
+  <si>
     <t>John Doe</t>
   </si>
   <si>
     <t>5678</t>
+  </si>
+  <si>
+    <t>BS5</t>
+  </si>
+  <si>
+    <t>BS6</t>
+  </si>
+  <si>
+    <t>BS7</t>
+  </si>
+  <si>
+    <t>BS8</t>
+  </si>
+  <si>
+    <t>BS9</t>
+  </si>
+  <si>
+    <t>BS10</t>
+  </si>
+  <si>
+    <t>BS11</t>
   </si>
 </sst>
 </file>
@@ -89,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,56 +147,239 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>100.0</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>10.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.0</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>100.0</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>10.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>91.0</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/rom/Bills/BillSale.xlsx
+++ b/rom/Bills/BillSale.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -44,7 +44,7 @@
     <t>02/04/2023</t>
   </si>
   <si>
-    <t>BS1</t>
+    <t>BS2</t>
   </si>
   <si>
     <t>John Doe</t>
@@ -53,25 +53,13 @@
     <t>5678</t>
   </si>
   <si>
+    <t>BS3</t>
+  </si>
+  <si>
+    <t>BS4</t>
+  </si>
+  <si>
     <t>BS5</t>
-  </si>
-  <si>
-    <t>BS6</t>
-  </si>
-  <si>
-    <t>BS7</t>
-  </si>
-  <si>
-    <t>BS8</t>
-  </si>
-  <si>
-    <t>BS9</t>
-  </si>
-  <si>
-    <t>BS10</t>
-  </si>
-  <si>
-    <t>BS11</t>
   </si>
 </sst>
 </file>
@@ -116,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -267,122 +255,6 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rom/Bills/BillSale.xlsx
+++ b/rom/Bills/BillSale.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -41,28 +41,16 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>04/04/2023</t>
+    <t>05/04/2023</t>
   </si>
   <si>
-    <t>BS1</t>
+    <t>BS17</t>
   </si>
   <si>
     <t>John Doe</t>
   </si>
   <si>
     <t>5678</t>
-  </si>
-  <si>
-    <t>BS2</t>
-  </si>
-  <si>
-    <t>BS3</t>
-  </si>
-  <si>
-    <t>BS4</t>
-  </si>
-  <si>
-    <t>BS5</t>
   </si>
 </sst>
 </file>
@@ -107,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,122 +159,6 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rom/Bills/BillSale.xlsx
+++ b/rom/Bills/BillSale.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,39 @@
   </si>
   <si>
     <t>5678</t>
+  </si>
+  <si>
+    <t>BS20</t>
+  </si>
+  <si>
+    <t>BS21</t>
+  </si>
+  <si>
+    <t>BS22</t>
+  </si>
+  <si>
+    <t>BS23</t>
+  </si>
+  <si>
+    <t>BS24</t>
+  </si>
+  <si>
+    <t>BS26</t>
+  </si>
+  <si>
+    <t>BS27</t>
+  </si>
+  <si>
+    <t>BS28</t>
+  </si>
+  <si>
+    <t>BS29</t>
+  </si>
+  <si>
+    <t>BS30</t>
+  </si>
+  <si>
+    <t>BS31</t>
   </si>
 </sst>
 </file>
@@ -95,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,6 +192,267 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rom/Bills/BillSale.xlsx
+++ b/rom/Bills/BillSale.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>5678</t>
+  </si>
+  <si>
+    <t>19/04/2023</t>
+  </si>
+  <si>
+    <t>BS43</t>
+  </si>
+  <si>
+    <t>qqweqeq</t>
+  </si>
+  <si>
+    <t>Pangolines</t>
+  </si>
+  <si>
+    <t>PL18</t>
   </si>
 </sst>
 </file>
@@ -95,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,6 +174,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rom/Bills/BillSale.xlsx
+++ b/rom/Bills/BillSale.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,120 @@
   </si>
   <si>
     <t>PL18</t>
+  </si>
+  <si>
+    <t>BS44</t>
+  </si>
+  <si>
+    <t>jhon</t>
+  </si>
+  <si>
+    <t>BS45</t>
+  </si>
+  <si>
+    <t>BS46</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>Balazos</t>
+  </si>
+  <si>
+    <t>PL19</t>
+  </si>
+  <si>
+    <t>BS47</t>
+  </si>
+  <si>
+    <t>BS48</t>
+  </si>
+  <si>
+    <t>BS49</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>BS50</t>
+  </si>
+  <si>
+    <t>jjjj</t>
+  </si>
+  <si>
+    <t>BS51</t>
+  </si>
+  <si>
+    <t>jjhfjh</t>
+  </si>
+  <si>
+    <t>BS52</t>
+  </si>
+  <si>
+    <t>dffff</t>
+  </si>
+  <si>
+    <t>BS53</t>
+  </si>
+  <si>
+    <t>mnhhh</t>
+  </si>
+  <si>
+    <t>BS54</t>
+  </si>
+  <si>
+    <t>nhn</t>
+  </si>
+  <si>
+    <t>BS55</t>
+  </si>
+  <si>
+    <t>jjh</t>
+  </si>
+  <si>
+    <t>BS56</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>BS57</t>
+  </si>
+  <si>
+    <t>BS58</t>
+  </si>
+  <si>
+    <t>BS59</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>BS60</t>
+  </si>
+  <si>
+    <t>jhhon</t>
+  </si>
+  <si>
+    <t>BS61</t>
+  </si>
+  <si>
+    <t>kdkkd</t>
+  </si>
+  <si>
+    <t>BS62</t>
+  </si>
+  <si>
+    <t>BS63</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>BS64</t>
+  </si>
+  <si>
+    <t>jsjs</t>
   </si>
 </sst>
 </file>
@@ -110,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,7 +293,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
         <v>2250.0</v>
@@ -194,13 +308,129 @@
         <v>2250.0</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20200.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20191.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2241.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20200.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20200.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/rom/Bills/BillSale.xlsx
+++ b/rom/Bills/BillSale.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>jsjs</t>
+  </si>
+  <si>
+    <t>07/05/2023</t>
+  </si>
+  <si>
+    <t>BS0</t>
+  </si>
+  <si>
+    <t>GHH</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>PL20</t>
+  </si>
+  <si>
+    <t>DFF</t>
   </si>
 </sst>
 </file>
@@ -224,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,6 +451,64 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="n">
+        <v>123123.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>123123.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
